--- a/EstimatedActiveCasesOverTimeByCounty/2021-02-03.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-02-03.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="319">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/02/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/03/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Active Cases 02-01.y</t>
+  </si>
+  <si>
+    <t>Active Cases 02-02</t>
   </si>
   <si>
     <t/>
@@ -1136,6 +1139,7 @@
     <col min="53" max="53" width="12.0" customWidth="true"/>
     <col min="54" max="54" width="12.0" customWidth="true"/>
     <col min="55" max="55" width="12.0" customWidth="true"/>
+    <col min="56" max="56" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1314,13 +1318,16 @@
       <c r="BC3" t="s" s="10">
         <v>56</v>
       </c>
+      <c r="BD3" t="s" s="10">
+        <v>57</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1480,14 +1487,17 @@
       </c>
       <c r="BC4" t="n">
         <v>477.0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>396.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -1647,14 +1657,17 @@
       </c>
       <c r="BC5" t="n">
         <v>172.0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -1814,14 +1827,17 @@
       </c>
       <c r="BC6" t="n">
         <v>776.0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>778.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -1981,14 +1997,17 @@
       </c>
       <c r="BC7" t="n">
         <v>153.0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -2148,14 +2167,17 @@
       </c>
       <c r="BC8" t="n">
         <v>4.0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -2314,15 +2336,18 @@
         <v>17.0</v>
       </c>
       <c r="BC9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BD9" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -2482,14 +2507,17 @@
       </c>
       <c r="BC10" t="n">
         <v>263.0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>275.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -2649,14 +2677,17 @@
       </c>
       <c r="BC11" t="n">
         <v>93.0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -2816,14 +2847,17 @@
       </c>
       <c r="BC12" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -2983,14 +3017,17 @@
       </c>
       <c r="BC13" t="n">
         <v>79.0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -3150,14 +3187,17 @@
       </c>
       <c r="BC14" t="n">
         <v>1936.0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1967.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -3317,14 +3357,17 @@
       </c>
       <c r="BC15" t="n">
         <v>2.0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -3484,14 +3527,17 @@
       </c>
       <c r="BC16" t="n">
         <v>281.0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>286.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -3651,14 +3697,17 @@
       </c>
       <c r="BC17" t="n">
         <v>1691.0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1801.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -3818,14 +3867,17 @@
       </c>
       <c r="BC18" t="n">
         <v>30409.0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>28723.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -3985,14 +4037,17 @@
       </c>
       <c r="BC19" t="n">
         <v>164.0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>173.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -4151,15 +4206,18 @@
         <v>0.0</v>
       </c>
       <c r="BC20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -4319,14 +4377,17 @@
       </c>
       <c r="BC21" t="n">
         <v>283.0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>280.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -4486,14 +4547,17 @@
       </c>
       <c r="BC22" t="n">
         <v>429.0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>456.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -4653,14 +4717,17 @@
       </c>
       <c r="BC23" t="n">
         <v>5505.0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>5118.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -4820,14 +4887,17 @@
       </c>
       <c r="BC24" t="n">
         <v>1520.0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>1480.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -4986,15 +5056,18 @@
         <v>0.0</v>
       </c>
       <c r="BC25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -5153,15 +5226,18 @@
         <v>12.0</v>
       </c>
       <c r="BC26" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BD26" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -5321,14 +5397,17 @@
       </c>
       <c r="BC27" t="n">
         <v>57.0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -5487,15 +5566,18 @@
         <v>387.0</v>
       </c>
       <c r="BC28" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="BD28" t="n">
         <v>323.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -5655,14 +5737,17 @@
       </c>
       <c r="BC29" t="n">
         <v>441.0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>450.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -5822,14 +5907,17 @@
       </c>
       <c r="BC30" t="n">
         <v>953.0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>979.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -5989,14 +6077,17 @@
       </c>
       <c r="BC31" t="n">
         <v>1266.0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1297.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -6156,14 +6247,17 @@
       </c>
       <c r="BC32" t="n">
         <v>81.0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -6323,14 +6417,17 @@
       </c>
       <c r="BC33" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -6490,14 +6587,17 @@
       </c>
       <c r="BC34" t="n">
         <v>5437.0</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>5369.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -6657,14 +6757,17 @@
       </c>
       <c r="BC35" t="n">
         <v>179.0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>176.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -6824,14 +6927,17 @@
       </c>
       <c r="BC36" t="n">
         <v>20.0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -6990,15 +7096,18 @@
         <v>102.0</v>
       </c>
       <c r="BC37" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="BD37" t="n">
         <v>104.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -7158,14 +7267,17 @@
       </c>
       <c r="BC38" t="n">
         <v>25.0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -7325,14 +7437,17 @@
       </c>
       <c r="BC39" t="n">
         <v>352.0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>372.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -7492,14 +7607,17 @@
       </c>
       <c r="BC40" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -7659,14 +7777,17 @@
       </c>
       <c r="BC41" t="n">
         <v>27.0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -7826,14 +7947,17 @@
       </c>
       <c r="BC42" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -7993,14 +8117,17 @@
       </c>
       <c r="BC43" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -8160,14 +8287,17 @@
       </c>
       <c r="BC44" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -8327,14 +8457,17 @@
       </c>
       <c r="BC45" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -8494,14 +8627,17 @@
       </c>
       <c r="BC46" t="n">
         <v>4486.0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>4619.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -8661,14 +8797,17 @@
       </c>
       <c r="BC47" t="n">
         <v>15.0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -8828,14 +8967,17 @@
       </c>
       <c r="BC48" t="n">
         <v>94.0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -8995,14 +9137,17 @@
       </c>
       <c r="BC49" t="n">
         <v>667.0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>629.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -9162,14 +9307,17 @@
       </c>
       <c r="BC50" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -9329,14 +9477,17 @@
       </c>
       <c r="BC51" t="n">
         <v>37.0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -9496,14 +9647,17 @@
       </c>
       <c r="BC52" t="n">
         <v>104.0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -9663,14 +9817,17 @@
       </c>
       <c r="BC53" t="n">
         <v>1095.0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1118.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -9829,15 +9986,18 @@
         <v>1.0</v>
       </c>
       <c r="BC54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD54" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -9997,14 +10157,17 @@
       </c>
       <c r="BC55" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -10164,14 +10327,17 @@
       </c>
       <c r="BC56" t="n">
         <v>38.0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -10331,14 +10497,17 @@
       </c>
       <c r="BC57" t="n">
         <v>53.0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -10498,14 +10667,17 @@
       </c>
       <c r="BC58" t="n">
         <v>38.0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -10665,14 +10837,17 @@
       </c>
       <c r="BC59" t="n">
         <v>94.0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -10832,14 +11007,17 @@
       </c>
       <c r="BC60" t="n">
         <v>33403.0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>33560.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -10999,14 +11177,17 @@
       </c>
       <c r="BC61" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -11166,14 +11347,17 @@
       </c>
       <c r="BC62" t="n">
         <v>79.0</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -11332,15 +11516,18 @@
         <v>52.0</v>
       </c>
       <c r="BC63" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BD63" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -11500,14 +11687,17 @@
       </c>
       <c r="BC64" t="n">
         <v>15138.0</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>15110.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -11666,15 +11856,18 @@
         <v>136.0</v>
       </c>
       <c r="BC65" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="BD65" t="n">
         <v>105.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -11834,14 +12027,17 @@
       </c>
       <c r="BC66" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -12001,14 +12197,17 @@
       </c>
       <c r="BC67" t="n">
         <v>144.0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -12168,14 +12367,17 @@
       </c>
       <c r="BC68" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -12335,14 +12537,17 @@
       </c>
       <c r="BC69" t="n">
         <v>101.0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -12502,14 +12707,17 @@
       </c>
       <c r="BC70" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -12669,14 +12877,17 @@
       </c>
       <c r="BC71" t="n">
         <v>1628.0</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1593.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -12836,14 +13047,17 @@
       </c>
       <c r="BC72" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -13003,14 +13217,17 @@
       </c>
       <c r="BC73" t="n">
         <v>660.0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>623.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -13170,14 +13387,17 @@
       </c>
       <c r="BC74" t="n">
         <v>35518.0</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>35585.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -13337,14 +13557,17 @@
       </c>
       <c r="BC75" t="n">
         <v>39.0</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -13504,14 +13727,17 @@
       </c>
       <c r="BC76" t="n">
         <v>299.0</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>294.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -13671,14 +13897,17 @@
       </c>
       <c r="BC77" t="n">
         <v>74.0</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -13838,14 +14067,17 @@
       </c>
       <c r="BC78" t="n">
         <v>363.0</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>371.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -14005,14 +14237,17 @@
       </c>
       <c r="BC79" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -14172,14 +14407,17 @@
       </c>
       <c r="BC80" t="n">
         <v>63.0</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -14339,14 +14577,17 @@
       </c>
       <c r="BC81" t="n">
         <v>1.0</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -14506,14 +14747,17 @@
       </c>
       <c r="BC82" t="n">
         <v>14412.0</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>14278.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -14673,14 +14917,17 @@
       </c>
       <c r="BC83" t="n">
         <v>104.0</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -14840,14 +15087,17 @@
       </c>
       <c r="BC84" t="n">
         <v>392.0</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>394.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -15007,14 +15257,17 @@
       </c>
       <c r="BC85" t="n">
         <v>90.0</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>120.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -15174,14 +15427,17 @@
       </c>
       <c r="BC86" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -15341,14 +15597,17 @@
       </c>
       <c r="BC87" t="n">
         <v>8193.0</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>8420.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -15508,14 +15767,17 @@
       </c>
       <c r="BC88" t="n">
         <v>31.0</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -15675,14 +15937,17 @@
       </c>
       <c r="BC89" t="n">
         <v>101.0</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -15842,14 +16107,17 @@
       </c>
       <c r="BC90" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -16008,15 +16276,18 @@
         <v>17.0</v>
       </c>
       <c r="BC91" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BD91" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B92" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -16176,14 +16447,17 @@
       </c>
       <c r="BC92" t="n">
         <v>183.0</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>192.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -16343,14 +16617,17 @@
       </c>
       <c r="BC93" t="n">
         <v>101.0</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -16510,14 +16787,17 @@
       </c>
       <c r="BC94" t="n">
         <v>313.0</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>339.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B95" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -16677,14 +16957,17 @@
       </c>
       <c r="BC95" t="n">
         <v>3283.0</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>3392.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -16844,14 +17127,17 @@
       </c>
       <c r="BC96" t="n">
         <v>524.0</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>535.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B97" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -17011,14 +17297,17 @@
       </c>
       <c r="BC97" t="n">
         <v>628.0</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>705.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B98" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -17178,14 +17467,17 @@
       </c>
       <c r="BC98" t="n">
         <v>141.0</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -17345,14 +17637,17 @@
       </c>
       <c r="BC99" t="n">
         <v>38.0</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B100" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -17512,14 +17807,17 @@
       </c>
       <c r="BC100" t="n">
         <v>88.0</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B101" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -17679,14 +17977,17 @@
       </c>
       <c r="BC101" t="n">
         <v>69.0</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B102" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -17846,14 +18147,17 @@
       </c>
       <c r="BC102" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B103" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -18013,14 +18317,17 @@
       </c>
       <c r="BC103" t="n">
         <v>918.0</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>827.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -18180,14 +18487,17 @@
       </c>
       <c r="BC104" t="n">
         <v>48782.0</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>47536.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -18347,14 +18657,17 @@
       </c>
       <c r="BC105" t="n">
         <v>822.0</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>837.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -18514,14 +18827,17 @@
       </c>
       <c r="BC106" t="n">
         <v>60.0</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -18680,15 +18996,18 @@
         <v>8.0</v>
       </c>
       <c r="BC107" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD107" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -18848,14 +19167,17 @@
       </c>
       <c r="BC108" t="n">
         <v>2545.0</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>2570.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -19015,14 +19337,17 @@
       </c>
       <c r="BC109" t="n">
         <v>98.0</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -19182,14 +19507,17 @@
       </c>
       <c r="BC110" t="n">
         <v>1648.0</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1731.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -19349,14 +19677,17 @@
       </c>
       <c r="BC111" t="n">
         <v>2358.0</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2354.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -19516,14 +19847,17 @@
       </c>
       <c r="BC112" t="n">
         <v>782.0</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>807.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B113" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -19683,14 +20017,17 @@
       </c>
       <c r="BC113" t="n">
         <v>103.0</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B114" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -19850,14 +20187,17 @@
       </c>
       <c r="BC114" t="n">
         <v>168.0</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B115" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -20017,14 +20357,17 @@
       </c>
       <c r="BC115" t="n">
         <v>163.0</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B116" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -20184,14 +20527,17 @@
       </c>
       <c r="BC116" t="n">
         <v>92.0</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B117" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -20351,14 +20697,17 @@
       </c>
       <c r="BC117" t="n">
         <v>264.0</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>272.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B118" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -20518,14 +20867,17 @@
       </c>
       <c r="BC118" t="n">
         <v>39.0</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B119" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -20685,14 +21037,17 @@
       </c>
       <c r="BC119" t="n">
         <v>1072.0</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>1122.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B120" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -20852,14 +21207,17 @@
       </c>
       <c r="BC120" t="n">
         <v>130.0</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B121" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -21019,14 +21377,17 @@
       </c>
       <c r="BC121" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B122" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -21186,14 +21547,17 @@
       </c>
       <c r="BC122" t="n">
         <v>15.0</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B123" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -21353,14 +21717,17 @@
       </c>
       <c r="BC123" t="n">
         <v>101.0</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -21519,15 +21886,18 @@
         <v>84.0</v>
       </c>
       <c r="BC124" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BD124" t="n">
         <v>75.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B125" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -21687,14 +22057,17 @@
       </c>
       <c r="BC125" t="n">
         <v>14.0</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B126" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -21854,14 +22227,17 @@
       </c>
       <c r="BC126" t="n">
         <v>3477.0</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>3110.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B127" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -22021,14 +22397,17 @@
       </c>
       <c r="BC127" t="n">
         <v>87.0</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B128" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -22188,14 +22567,17 @@
       </c>
       <c r="BC128" t="n">
         <v>430.0</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>396.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B129" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -22355,14 +22737,17 @@
       </c>
       <c r="BC129" t="n">
         <v>520.0</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>475.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B130" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -22522,14 +22907,17 @@
       </c>
       <c r="BC130" t="n">
         <v>195.0</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>194.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B131" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -22689,14 +23077,17 @@
       </c>
       <c r="BC131" t="n">
         <v>53.0</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B132" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -22856,14 +23247,17 @@
       </c>
       <c r="BC132" t="n">
         <v>490.0</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>445.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B133" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -23023,14 +23417,17 @@
       </c>
       <c r="BC133" t="n">
         <v>160.0</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>177.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B134" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -23189,15 +23586,18 @@
         <v>3.0</v>
       </c>
       <c r="BC134" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BD134" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B135" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -23357,14 +23757,17 @@
       </c>
       <c r="BC135" t="n">
         <v>2.0</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B136" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -23524,14 +23927,17 @@
       </c>
       <c r="BC136" t="n">
         <v>202.0</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>214.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B137" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -23691,14 +24097,17 @@
       </c>
       <c r="BC137" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B138" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -23857,15 +24266,18 @@
         <v>3.0</v>
       </c>
       <c r="BC138" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BD138" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B139" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -24025,14 +24437,17 @@
       </c>
       <c r="BC139" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B140" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -24192,14 +24607,17 @@
       </c>
       <c r="BC140" t="n">
         <v>309.0</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>305.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B141" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -24358,15 +24776,18 @@
         <v>1.0</v>
       </c>
       <c r="BC141" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BD141" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B142" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -24526,14 +24947,17 @@
       </c>
       <c r="BC142" t="n">
         <v>432.0</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>410.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B143" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -24693,14 +25117,17 @@
       </c>
       <c r="BC143" t="n">
         <v>77.0</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B144" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -24860,14 +25287,17 @@
       </c>
       <c r="BC144" t="n">
         <v>540.0</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>553.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B145" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -25026,15 +25456,18 @@
         <v>61.0</v>
       </c>
       <c r="BC145" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="BD145" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -25194,14 +25627,17 @@
       </c>
       <c r="BC146" t="n">
         <v>79.0</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B147" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -25361,14 +25797,17 @@
       </c>
       <c r="BC147" t="n">
         <v>334.0</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>331.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B148" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -25528,14 +25967,17 @@
       </c>
       <c r="BC148" t="n">
         <v>277.0</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>287.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B149" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -25695,14 +26137,17 @@
       </c>
       <c r="BC149" t="n">
         <v>505.0</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>506.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B150" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -25862,14 +26307,17 @@
       </c>
       <c r="BC150" t="n">
         <v>525.0</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>539.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B151" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -26029,14 +26477,17 @@
       </c>
       <c r="BC151" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B152" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -26196,14 +26647,17 @@
       </c>
       <c r="BC152" t="n">
         <v>109.0</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B153" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -26363,14 +26817,17 @@
       </c>
       <c r="BC153" t="n">
         <v>316.0</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>305.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B154" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -26529,15 +26986,18 @@
         <v>0.0</v>
       </c>
       <c r="BC154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B155" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -26697,14 +27157,17 @@
       </c>
       <c r="BC155" t="n">
         <v>1598.0</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1545.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -26864,14 +27327,17 @@
       </c>
       <c r="BC156" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B157" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -27031,14 +27497,17 @@
       </c>
       <c r="BC157" t="n">
         <v>29.0</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B158" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -27198,14 +27667,17 @@
       </c>
       <c r="BC158" t="n">
         <v>693.0</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>660.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B159" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -27364,15 +27836,18 @@
         <v>4.0</v>
       </c>
       <c r="BC159" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BD159" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B160" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -27532,14 +28007,17 @@
       </c>
       <c r="BC160" t="n">
         <v>220.0</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>215.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B161" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -27698,15 +28176,18 @@
         <v>101.0</v>
       </c>
       <c r="BC161" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="BD161" t="n">
         <v>102.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B162" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -27866,14 +28347,17 @@
       </c>
       <c r="BC162" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B163" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -28033,14 +28517,17 @@
       </c>
       <c r="BC163" t="n">
         <v>14.0</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B164" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -28200,14 +28687,17 @@
       </c>
       <c r="BC164" t="n">
         <v>128.0</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B165" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -28367,14 +28857,17 @@
       </c>
       <c r="BC165" t="n">
         <v>1556.0</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>1520.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B166" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -28534,14 +29027,17 @@
       </c>
       <c r="BC166" t="n">
         <v>194.0</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>238.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B167" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -28700,15 +29196,18 @@
         <v>22.0</v>
       </c>
       <c r="BC167" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BD167" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B168" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -28868,14 +29367,17 @@
       </c>
       <c r="BC168" t="n">
         <v>2776.0</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2714.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B169" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -29035,14 +29537,17 @@
       </c>
       <c r="BC169" t="n">
         <v>104.0</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>132.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B170" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -29202,14 +29707,17 @@
       </c>
       <c r="BC170" t="n">
         <v>144.0</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>135.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B171" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -29369,14 +29877,17 @@
       </c>
       <c r="BC171" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B172" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -29536,14 +30047,17 @@
       </c>
       <c r="BC172" t="n">
         <v>37.0</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B173" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -29703,14 +30217,17 @@
       </c>
       <c r="BC173" t="n">
         <v>20964.0</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>21112.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B174" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -29870,14 +30387,17 @@
       </c>
       <c r="BC174" t="n">
         <v>47.0</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B175" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -30037,14 +30557,17 @@
       </c>
       <c r="BC175" t="n">
         <v>116.0</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>117.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B176" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -30203,15 +30726,18 @@
         <v>1.0</v>
       </c>
       <c r="BC176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD176" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B177" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -30371,14 +30897,17 @@
       </c>
       <c r="BC177" t="n">
         <v>303.0</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>296.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B178" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -30538,14 +31067,17 @@
       </c>
       <c r="BC178" t="n">
         <v>660.0</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>586.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B179" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -30705,14 +31237,17 @@
       </c>
       <c r="BC179" t="n">
         <v>27.0</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B180" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -30872,14 +31407,17 @@
       </c>
       <c r="BC180" t="n">
         <v>220.0</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>217.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B181" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -31039,14 +31577,17 @@
       </c>
       <c r="BC181" t="n">
         <v>2758.0</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>2805.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B182" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -31206,14 +31747,17 @@
       </c>
       <c r="BC182" t="n">
         <v>42.0</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B183" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -31373,14 +31917,17 @@
       </c>
       <c r="BC183" t="n">
         <v>36.0</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B184" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -31540,14 +32087,17 @@
       </c>
       <c r="BC184" t="n">
         <v>994.0</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>794.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B185" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -31707,14 +32257,17 @@
       </c>
       <c r="BC185" t="n">
         <v>54.0</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B186" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -31874,14 +32427,17 @@
       </c>
       <c r="BC186" t="n">
         <v>146.0</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B187" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -32041,14 +32597,17 @@
       </c>
       <c r="BC187" t="n">
         <v>400.0</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>397.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -32208,14 +32767,17 @@
       </c>
       <c r="BC188" t="n">
         <v>27.0</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B189" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -32375,14 +32937,17 @@
       </c>
       <c r="BC189" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B190" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -32542,14 +33107,17 @@
       </c>
       <c r="BC190" t="n">
         <v>306.0</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>304.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B191" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -32709,14 +33277,17 @@
       </c>
       <c r="BC191" t="n">
         <v>996.0</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>1030.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B192" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -32876,14 +33447,17 @@
       </c>
       <c r="BC192" t="n">
         <v>71.0</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B193" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -33043,14 +33617,17 @@
       </c>
       <c r="BC193" t="n">
         <v>229.0</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>237.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B194" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -33210,14 +33787,17 @@
       </c>
       <c r="BC194" t="n">
         <v>1341.0</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>1355.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B195" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -33377,14 +33957,17 @@
       </c>
       <c r="BC195" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B196" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -33544,14 +34127,17 @@
       </c>
       <c r="BC196" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B197" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -33711,14 +34297,17 @@
       </c>
       <c r="BC197" t="n">
         <v>21.0</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B198" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -33878,14 +34467,17 @@
       </c>
       <c r="BC198" t="n">
         <v>79.0</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B199" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -34045,14 +34637,17 @@
       </c>
       <c r="BC199" t="n">
         <v>58.0</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B200" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -34212,14 +34807,17 @@
       </c>
       <c r="BC200" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B201" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -34379,14 +34977,17 @@
       </c>
       <c r="BC201" t="n">
         <v>427.0</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>440.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B202" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -34546,14 +35147,17 @@
       </c>
       <c r="BC202" t="n">
         <v>432.0</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>413.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B203" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -34712,15 +35316,18 @@
         <v>26.0</v>
       </c>
       <c r="BC203" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BD203" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B204" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -34880,14 +35487,17 @@
       </c>
       <c r="BC204" t="n">
         <v>381.0</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>382.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B205" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -35046,15 +35656,18 @@
         <v>0.0</v>
       </c>
       <c r="BC205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B206" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -35213,15 +35826,18 @@
         <v>27.0</v>
       </c>
       <c r="BC206" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BD206" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B207" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -35381,14 +35997,17 @@
       </c>
       <c r="BC207" t="n">
         <v>142.0</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>149.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B208" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -35547,15 +36166,18 @@
         <v>296.0</v>
       </c>
       <c r="BC208" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="BD208" t="n">
         <v>296.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B209" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -35715,14 +36337,17 @@
       </c>
       <c r="BC209" t="n">
         <v>164.0</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B210" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -35882,14 +36507,17 @@
       </c>
       <c r="BC210" t="n">
         <v>27.0</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B211" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -36049,14 +36677,17 @@
       </c>
       <c r="BC211" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B212" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -36216,14 +36847,17 @@
       </c>
       <c r="BC212" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B213" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -36383,14 +37017,17 @@
       </c>
       <c r="BC213" t="n">
         <v>159.0</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>149.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B214" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -36550,14 +37187,17 @@
       </c>
       <c r="BC214" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B215" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -36717,14 +37357,17 @@
       </c>
       <c r="BC215" t="n">
         <v>5589.0</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>5843.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B216" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -36884,14 +37527,17 @@
       </c>
       <c r="BC216" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B217" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -37051,14 +37697,17 @@
       </c>
       <c r="BC217" t="n">
         <v>1248.0</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>1208.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B218" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -37218,14 +37867,17 @@
       </c>
       <c r="BC218" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B219" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -37384,15 +38036,18 @@
         <v>4.0</v>
       </c>
       <c r="BC219" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BD219" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B220" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -37551,15 +38206,18 @@
         <v>0.0</v>
       </c>
       <c r="BC220" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD220" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B221" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -37719,14 +38377,17 @@
       </c>
       <c r="BC221" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B222" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -37886,14 +38547,17 @@
       </c>
       <c r="BC222" t="n">
         <v>38.0</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B223" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -38053,14 +38717,17 @@
       </c>
       <c r="BC223" t="n">
         <v>47547.0</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>46124.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B224" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -38220,14 +38887,17 @@
       </c>
       <c r="BC224" t="n">
         <v>2236.0</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>2052.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B225" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -38387,14 +39057,17 @@
       </c>
       <c r="BC225" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B226" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -38554,14 +39227,17 @@
       </c>
       <c r="BC226" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B227" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -38720,15 +39396,18 @@
         <v>2.0</v>
       </c>
       <c r="BC227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B228" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -38888,14 +39567,17 @@
       </c>
       <c r="BC228" t="n">
         <v>451.0</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>465.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B229" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -39055,14 +39737,17 @@
       </c>
       <c r="BC229" t="n">
         <v>950.0</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>862.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B230" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -39222,14 +39907,17 @@
       </c>
       <c r="BC230" t="n">
         <v>5201.0</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>5144.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B231" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -39389,14 +40077,17 @@
       </c>
       <c r="BC231" t="n">
         <v>72.0</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B232" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -39556,14 +40247,17 @@
       </c>
       <c r="BC232" t="n">
         <v>37.0</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B233" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -39723,14 +40417,17 @@
       </c>
       <c r="BC233" t="n">
         <v>502.0</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>503.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B234" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -39890,14 +40587,17 @@
       </c>
       <c r="BC234" t="n">
         <v>71.0</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B235" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -40057,14 +40757,17 @@
       </c>
       <c r="BC235" t="n">
         <v>208.0</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>221.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B236" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -40223,15 +40926,18 @@
         <v>1152.0</v>
       </c>
       <c r="BC236" t="n">
+        <v>835.0</v>
+      </c>
+      <c r="BD236" t="n">
         <v>835.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B237" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -40391,14 +41097,17 @@
       </c>
       <c r="BC237" t="n">
         <v>1162.0</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>1271.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B238" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -40558,14 +41267,17 @@
       </c>
       <c r="BC238" t="n">
         <v>545.0</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>600.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B239" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -40725,14 +41437,17 @@
       </c>
       <c r="BC239" t="n">
         <v>535.0</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>410.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B240" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -40892,14 +41607,17 @@
       </c>
       <c r="BC240" t="n">
         <v>276.0</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>255.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B241" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -41059,14 +41777,17 @@
       </c>
       <c r="BC241" t="n">
         <v>85.0</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B242" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -41226,14 +41947,17 @@
       </c>
       <c r="BC242" t="n">
         <v>906.0</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>920.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B243" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -41393,14 +42117,17 @@
       </c>
       <c r="BC243" t="n">
         <v>6989.0</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>6288.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B244" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -41560,14 +42287,17 @@
       </c>
       <c r="BC244" t="n">
         <v>269.0</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>252.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B245" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -41727,14 +42457,17 @@
       </c>
       <c r="BC245" t="n">
         <v>30.0</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B246" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -41894,14 +42627,17 @@
       </c>
       <c r="BC246" t="n">
         <v>1509.0</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>1331.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B247" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -42060,15 +42796,18 @@
         <v>9.0</v>
       </c>
       <c r="BC247" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BD247" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B248" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -42228,14 +42967,17 @@
       </c>
       <c r="BC248" t="n">
         <v>277.0</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>275.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B249" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -42395,14 +43137,17 @@
       </c>
       <c r="BC249" t="n">
         <v>1608.0</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>1636.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B250" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -42562,14 +43307,17 @@
       </c>
       <c r="BC250" t="n">
         <v>189.0</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>224.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B251" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -42728,15 +43476,18 @@
         <v>51.0</v>
       </c>
       <c r="BC251" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="BD251" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B252" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -42896,14 +43647,17 @@
       </c>
       <c r="BC252" t="n">
         <v>240.0</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>251.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B253" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -43063,14 +43817,17 @@
       </c>
       <c r="BC253" t="n">
         <v>982.0</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>1038.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B254" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -43230,14 +43987,17 @@
       </c>
       <c r="BC254" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B255" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -43397,14 +44157,17 @@
       </c>
       <c r="BC255" t="n">
         <v>33.0</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B256" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -43564,14 +44327,17 @@
       </c>
       <c r="BC256" t="n">
         <v>258.0</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>244.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B257" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -43731,14 +44497,17 @@
       </c>
       <c r="BC257" t="n">
         <v>121.0</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B258" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -43793,13 +44562,14 @@
       <c r="BA258"/>
       <c r="BB258"/>
       <c r="BC258"/>
+      <c r="BD258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B259" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -43854,13 +44624,14 @@
       <c r="BA259"/>
       <c r="BB259"/>
       <c r="BC259"/>
+      <c r="BD259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B260" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -43915,13 +44686,14 @@
       <c r="BA260"/>
       <c r="BB260"/>
       <c r="BC260"/>
+      <c r="BD260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B261" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -43976,13 +44748,14 @@
       <c r="BA261"/>
       <c r="BB261"/>
       <c r="BC261"/>
+      <c r="BD261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B262" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -44037,13 +44810,14 @@
       <c r="BA262"/>
       <c r="BB262"/>
       <c r="BC262"/>
+      <c r="BD262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B263" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -44098,13 +44872,14 @@
       <c r="BA263"/>
       <c r="BB263"/>
       <c r="BC263"/>
+      <c r="BD263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B264" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -44159,13 +44934,14 @@
       <c r="BA264"/>
       <c r="BB264"/>
       <c r="BC264"/>
+      <c r="BD264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B265" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -44220,13 +44996,14 @@
       <c r="BA265"/>
       <c r="BB265"/>
       <c r="BC265"/>
+      <c r="BD265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B266" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -44281,13 +45058,14 @@
       <c r="BA266"/>
       <c r="BB266"/>
       <c r="BC266"/>
+      <c r="BD266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B267" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -44342,13 +45120,14 @@
       <c r="BA267"/>
       <c r="BB267"/>
       <c r="BC267"/>
+      <c r="BD267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B268" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -44403,13 +45182,14 @@
       <c r="BA268"/>
       <c r="BB268"/>
       <c r="BC268"/>
+      <c r="BD268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B269" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -44464,13 +45244,14 @@
       <c r="BA269"/>
       <c r="BB269"/>
       <c r="BC269"/>
+      <c r="BD269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B270" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -44525,13 +45306,14 @@
       <c r="BA270"/>
       <c r="BB270"/>
       <c r="BC270"/>
+      <c r="BD270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B271" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -44586,13 +45368,14 @@
       <c r="BA271"/>
       <c r="BB271"/>
       <c r="BC271"/>
+      <c r="BD271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B272" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -44647,13 +45430,14 @@
       <c r="BA272"/>
       <c r="BB272"/>
       <c r="BC272"/>
+      <c r="BD272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B273" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -44708,13 +45492,14 @@
       <c r="BA273"/>
       <c r="BB273"/>
       <c r="BC273"/>
+      <c r="BD273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B274" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -44769,13 +45554,14 @@
       <c r="BA274"/>
       <c r="BB274"/>
       <c r="BC274"/>
+      <c r="BD274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B275" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -44830,13 +45616,14 @@
       <c r="BA275"/>
       <c r="BB275"/>
       <c r="BC275"/>
+      <c r="BD275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -44891,13 +45678,14 @@
       <c r="BA276"/>
       <c r="BB276"/>
       <c r="BC276"/>
+      <c r="BD276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B277" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -44952,13 +45740,14 @@
       <c r="BA277"/>
       <c r="BB277"/>
       <c r="BC277"/>
+      <c r="BD277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B278" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -45013,13 +45802,14 @@
       <c r="BA278"/>
       <c r="BB278"/>
       <c r="BC278"/>
+      <c r="BD278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B279" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -45074,6 +45864,7 @@
       <c r="BA279"/>
       <c r="BB279"/>
       <c r="BC279"/>
+      <c r="BD279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
